--- a/Tables/pretime_trends_instrument_4q.xlsx
+++ b/Tables/pretime_trends_instrument_4q.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D37F5EE-3452-467B-9288-FCB6B2BC2D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA91895-DA84-4926-871B-437A12AA7499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{0FA8E6CF-1883-4982-9970-AE9BB2C074EF}"/>
+    <workbookView xWindow="28680" yWindow="-6990" windowWidth="29040" windowHeight="15720" xr2:uid="{0FA8E6CF-1883-4982-9970-AE9BB2C074EF}"/>
   </bookViews>
   <sheets>
     <sheet name="pretime_trends_instrument_4q" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,17 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Observations</t>
   </si>
   <si>
-    <t>(7)</t>
-  </si>
-  <si>
-    <t>(8)</t>
-  </si>
-  <si>
     <t>Municipality FE</t>
   </si>
   <si>
@@ -62,9 +55,6 @@
     <t>p-value</t>
   </si>
   <si>
-    <t xml:space="preserve">Wage </t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -105,9 +95,6 @@
   </si>
   <si>
     <t>Employee</t>
-  </si>
-  <si>
-    <t>Asalaried</t>
   </si>
   <si>
     <t>Total wage mass</t>
@@ -184,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -195,9 +182,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -253,287 +237,221 @@
         </row>
         <row r="5">
           <cell r="C5" t="str">
-            <v>-0.019</v>
+            <v>-0.070</v>
           </cell>
           <cell r="D5" t="str">
             <v/>
           </cell>
           <cell r="F5" t="str">
-            <v>0.083</v>
+            <v>0.0097</v>
           </cell>
           <cell r="G5" t="str">
             <v/>
           </cell>
-          <cell r="AA5" t="str">
-            <v>0.085</v>
-          </cell>
-          <cell r="AB5" t="str">
-            <v/>
-          </cell>
-          <cell r="AD5" t="str">
-            <v>0.037</v>
-          </cell>
-          <cell r="AE5" t="str">
+          <cell r="I5" t="str">
+            <v>-0.011</v>
+          </cell>
+          <cell r="J5" t="str">
             <v/>
           </cell>
         </row>
         <row r="6">
           <cell r="C6" t="str">
-            <v>(0.033)</v>
+            <v>(0.060)</v>
           </cell>
           <cell r="D6" t="str">
             <v/>
           </cell>
           <cell r="F6" t="str">
-            <v>(0.071)</v>
+            <v>(0.089)</v>
           </cell>
           <cell r="G6" t="str">
             <v/>
           </cell>
-          <cell r="AA6" t="str">
-            <v>(0.071)</v>
-          </cell>
-          <cell r="AB6" t="str">
-            <v/>
-          </cell>
-          <cell r="AD6" t="str">
-            <v>(0.057)</v>
-          </cell>
-          <cell r="AE6" t="str">
+          <cell r="I6" t="str">
+            <v>(0.089)</v>
+          </cell>
+          <cell r="J6" t="str">
             <v/>
           </cell>
         </row>
         <row r="8">
           <cell r="C8" t="str">
-            <v>0.015</v>
+            <v>0.033</v>
           </cell>
           <cell r="D8" t="str">
             <v/>
           </cell>
           <cell r="F8" t="str">
-            <v>-0.016</v>
+            <v>0.010</v>
           </cell>
           <cell r="G8" t="str">
             <v/>
           </cell>
-          <cell r="AA8" t="str">
-            <v>-0.032</v>
-          </cell>
-          <cell r="AB8" t="str">
-            <v/>
-          </cell>
-          <cell r="AD8" t="str">
-            <v>0.058</v>
-          </cell>
-          <cell r="AE8" t="str">
+          <cell r="I8" t="str">
+            <v>0.028</v>
+          </cell>
+          <cell r="J8" t="str">
             <v/>
           </cell>
         </row>
         <row r="9">
           <cell r="C9" t="str">
-            <v>(0.016)</v>
+            <v>(0.032)</v>
           </cell>
           <cell r="D9" t="str">
             <v/>
           </cell>
           <cell r="F9" t="str">
-            <v>(0.032)</v>
+            <v>(0.064)</v>
           </cell>
           <cell r="G9" t="str">
             <v/>
           </cell>
-          <cell r="AA9" t="str">
-            <v>(0.033)</v>
-          </cell>
-          <cell r="AB9" t="str">
-            <v/>
-          </cell>
-          <cell r="AD9" t="str">
-            <v>(0.046)</v>
-          </cell>
-          <cell r="AE9" t="str">
+          <cell r="I9" t="str">
+            <v>(0.073)</v>
+          </cell>
+          <cell r="J9" t="str">
             <v/>
           </cell>
         </row>
         <row r="11">
           <cell r="C11" t="str">
-            <v>-0.0030</v>
+            <v>-0.012</v>
           </cell>
           <cell r="D11" t="str">
             <v/>
           </cell>
           <cell r="F11" t="str">
-            <v>-0.016</v>
+            <v>-0.010</v>
           </cell>
           <cell r="G11" t="str">
             <v/>
           </cell>
-          <cell r="AA11" t="str">
-            <v>-0.018</v>
-          </cell>
-          <cell r="AB11" t="str">
-            <v/>
-          </cell>
-          <cell r="AD11" t="str">
-            <v>-0.033</v>
-          </cell>
-          <cell r="AE11" t="str">
+          <cell r="I11" t="str">
+            <v>0.010</v>
+          </cell>
+          <cell r="J11" t="str">
             <v/>
           </cell>
         </row>
         <row r="12">
           <cell r="C12" t="str">
-            <v>(0.018)</v>
+            <v>(0.029)</v>
           </cell>
           <cell r="D12" t="str">
             <v/>
           </cell>
           <cell r="F12" t="str">
-            <v>(0.032)</v>
+            <v>(0.051)</v>
           </cell>
           <cell r="G12" t="str">
             <v/>
           </cell>
-          <cell r="AA12" t="str">
-            <v>(0.032)</v>
-          </cell>
-          <cell r="AB12" t="str">
-            <v/>
-          </cell>
-          <cell r="AD12" t="str">
-            <v>(0.035)</v>
-          </cell>
-          <cell r="AE12" t="str">
+          <cell r="I12" t="str">
+            <v>(0.059)</v>
+          </cell>
+          <cell r="J12" t="str">
             <v/>
           </cell>
         </row>
         <row r="14">
           <cell r="C14" t="str">
-            <v>0.014</v>
+            <v>0.00030</v>
           </cell>
           <cell r="D14" t="str">
             <v/>
           </cell>
           <cell r="F14" t="str">
-            <v>-0.066**</v>
+            <v>-0.042</v>
           </cell>
           <cell r="G14" t="str">
             <v/>
           </cell>
-          <cell r="AA14" t="str">
-            <v>-0.066**</v>
-          </cell>
-          <cell r="AB14" t="str">
-            <v/>
-          </cell>
-          <cell r="AD14" t="str">
-            <v>-0.11**</v>
-          </cell>
-          <cell r="AE14" t="str">
+          <cell r="I14" t="str">
+            <v>-0.064</v>
+          </cell>
+          <cell r="J14" t="str">
             <v/>
           </cell>
         </row>
         <row r="15">
           <cell r="C15" t="str">
-            <v>(0.015)</v>
+            <v>(0.032)</v>
           </cell>
           <cell r="D15" t="str">
             <v/>
           </cell>
           <cell r="F15" t="str">
-            <v>(0.031)</v>
+            <v>(0.061)</v>
           </cell>
           <cell r="G15" t="str">
             <v/>
           </cell>
-          <cell r="AA15" t="str">
-            <v>(0.030)</v>
-          </cell>
-          <cell r="AB15" t="str">
-            <v/>
-          </cell>
-          <cell r="AD15" t="str">
-            <v>(0.044)</v>
-          </cell>
-          <cell r="AE15" t="str">
+          <cell r="I15" t="str">
+            <v>(0.060)</v>
+          </cell>
+          <cell r="J15" t="str">
             <v/>
           </cell>
         </row>
         <row r="17">
           <cell r="C17" t="str">
-            <v>-0.070</v>
+            <v>-0.032</v>
           </cell>
           <cell r="D17" t="str">
             <v/>
           </cell>
           <cell r="F17" t="str">
-            <v>-0.11</v>
+            <v>-0.090</v>
           </cell>
           <cell r="G17" t="str">
             <v/>
           </cell>
-          <cell r="AA17" t="str">
-            <v>-0.095</v>
-          </cell>
-          <cell r="AB17" t="str">
-            <v/>
-          </cell>
-          <cell r="AD17" t="str">
-            <v>0.0083</v>
-          </cell>
-          <cell r="AE17" t="str">
+          <cell r="I17" t="str">
+            <v>0.024</v>
+          </cell>
+          <cell r="J17" t="str">
             <v/>
           </cell>
         </row>
         <row r="18">
           <cell r="C18" t="str">
-            <v>(0.044)</v>
+            <v>(0.072)</v>
           </cell>
           <cell r="D18" t="str">
             <v/>
           </cell>
           <cell r="F18" t="str">
-            <v>(0.095)</v>
+            <v>(0.075)</v>
           </cell>
           <cell r="G18" t="str">
             <v/>
           </cell>
-          <cell r="AA18" t="str">
-            <v>(0.095)</v>
-          </cell>
-          <cell r="AB18" t="str">
-            <v/>
-          </cell>
-          <cell r="AD18" t="str">
-            <v>(0.055)</v>
-          </cell>
-          <cell r="AE18" t="str">
+          <cell r="I18" t="str">
+            <v>(0.066)</v>
+          </cell>
+          <cell r="J18" t="str">
             <v/>
           </cell>
         </row>
         <row r="20">
           <cell r="C20" t="str">
-            <v>-0.00081</v>
+            <v>-0.00066</v>
           </cell>
           <cell r="D20" t="str">
             <v/>
           </cell>
           <cell r="F20" t="str">
-            <v>0.028*</v>
+            <v>0.016</v>
           </cell>
           <cell r="G20" t="str">
             <v/>
           </cell>
-          <cell r="AA20" t="str">
-            <v>0.018</v>
-          </cell>
-          <cell r="AB20" t="str">
-            <v/>
-          </cell>
-          <cell r="AD20" t="str">
-            <v>0.025*</v>
-          </cell>
-          <cell r="AE20" t="str">
+          <cell r="I20" t="str">
+            <v>0.010</v>
+          </cell>
+          <cell r="J20" t="str">
             <v/>
           </cell>
         </row>
@@ -542,53 +460,41 @@
             <v/>
           </cell>
           <cell r="C21" t="str">
-            <v>(0.0070)</v>
+            <v>(0.011)</v>
           </cell>
           <cell r="D21" t="str">
             <v/>
           </cell>
           <cell r="F21" t="str">
-            <v>(0.015)</v>
+            <v>(0.020)</v>
           </cell>
           <cell r="G21" t="str">
             <v/>
           </cell>
-          <cell r="AA21" t="str">
-            <v>(0.014)</v>
-          </cell>
-          <cell r="AB21" t="str">
-            <v/>
-          </cell>
-          <cell r="AD21" t="str">
-            <v>(0.015)</v>
-          </cell>
-          <cell r="AE21" t="str">
+          <cell r="I21" t="str">
+            <v>(0.019)</v>
+          </cell>
+          <cell r="J21" t="str">
             <v/>
           </cell>
         </row>
         <row r="23">
           <cell r="C23" t="str">
-            <v>-0.0074</v>
+            <v>-0.020</v>
           </cell>
           <cell r="D23" t="str">
             <v/>
           </cell>
           <cell r="F23" t="str">
-            <v>-0.017</v>
+            <v>-0.058**</v>
           </cell>
           <cell r="G23" t="str">
             <v/>
           </cell>
-          <cell r="AA23" t="str">
-            <v>-0.0049</v>
-          </cell>
-          <cell r="AB23" t="str">
-            <v/>
-          </cell>
-          <cell r="AD23" t="str">
-            <v>-0.0038</v>
-          </cell>
-          <cell r="AE23" t="str">
+          <cell r="I23" t="str">
+            <v>-0.069*</v>
+          </cell>
+          <cell r="J23" t="str">
             <v/>
           </cell>
         </row>
@@ -597,27 +503,21 @@
             <v/>
           </cell>
           <cell r="C24" t="str">
-            <v>(0.0067)</v>
+            <v>(0.013)</v>
           </cell>
           <cell r="D24" t="str">
             <v/>
           </cell>
           <cell r="F24" t="str">
-            <v>(0.015)</v>
+            <v>(0.030)</v>
           </cell>
           <cell r="G24" t="str">
             <v/>
           </cell>
-          <cell r="AA24" t="str">
-            <v>(0.015)</v>
-          </cell>
-          <cell r="AB24" t="str">
-            <v/>
-          </cell>
-          <cell r="AD24" t="str">
-            <v>(0.020)</v>
-          </cell>
-          <cell r="AE24" t="str">
+          <cell r="I24" t="str">
+            <v>(0.037)</v>
+          </cell>
+          <cell r="J24" t="str">
             <v/>
           </cell>
         </row>
@@ -634,16 +534,10 @@
           <cell r="G26" t="str">
             <v/>
           </cell>
-          <cell r="AA26" t="str">
+          <cell r="I26" t="str">
             <v>0</v>
           </cell>
-          <cell r="AB26" t="str">
-            <v/>
-          </cell>
-          <cell r="AD26" t="str">
-            <v>0</v>
-          </cell>
-          <cell r="AE26" t="str">
+          <cell r="J26" t="str">
             <v/>
           </cell>
         </row>
@@ -663,43 +557,31 @@
           <cell r="G27" t="str">
             <v/>
           </cell>
-          <cell r="AA27" t="str">
+          <cell r="I27" t="str">
             <v>(.)</v>
           </cell>
-          <cell r="AB27" t="str">
-            <v/>
-          </cell>
-          <cell r="AD27" t="str">
-            <v>(.)</v>
-          </cell>
-          <cell r="AE27" t="str">
+          <cell r="J27" t="str">
             <v/>
           </cell>
         </row>
         <row r="29">
           <cell r="C29" t="str">
-            <v>-0.0081</v>
+            <v>0.026</v>
           </cell>
           <cell r="D29" t="str">
-            <v>-0.061</v>
+            <v>0.020</v>
           </cell>
           <cell r="F29" t="str">
-            <v>-0.33***</v>
+            <v>-0.13</v>
           </cell>
           <cell r="G29" t="str">
-            <v>-0.18**</v>
-          </cell>
-          <cell r="AA29" t="str">
-            <v>-0.36***</v>
-          </cell>
-          <cell r="AB29" t="str">
-            <v>-0.17*</v>
-          </cell>
-          <cell r="AD29" t="str">
-            <v>-0.69***</v>
-          </cell>
-          <cell r="AE29" t="str">
-            <v>-0.62***</v>
+            <v>-0.14</v>
+          </cell>
+          <cell r="I29" t="str">
+            <v>-0.24</v>
+          </cell>
+          <cell r="J29" t="str">
+            <v>-0.25</v>
           </cell>
         </row>
         <row r="30">
@@ -707,213 +589,162 @@
             <v/>
           </cell>
           <cell r="C30" t="str">
-            <v>(0.050)</v>
+            <v>(0.11)</v>
           </cell>
           <cell r="D30" t="str">
-            <v>(0.038)</v>
+            <v>(0.11)</v>
           </cell>
           <cell r="F30" t="str">
-            <v>(0.12)</v>
+            <v>(0.28)</v>
           </cell>
           <cell r="G30" t="str">
-            <v>(0.085)</v>
-          </cell>
-          <cell r="AA30" t="str">
-            <v>(0.13)</v>
-          </cell>
-          <cell r="AB30" t="str">
-            <v>(0.092)</v>
-          </cell>
-          <cell r="AD30" t="str">
-            <v>(0.15)</v>
-          </cell>
-          <cell r="AE30" t="str">
-            <v>(0.098)</v>
+            <v>(0.28)</v>
+          </cell>
+          <cell r="I30" t="str">
+            <v>(0.22)</v>
+          </cell>
+          <cell r="J30" t="str">
+            <v>(0.22)</v>
           </cell>
         </row>
         <row r="32">
           <cell r="C32" t="str">
-            <v>0.0041</v>
+            <v>0.017**</v>
           </cell>
           <cell r="D32" t="str">
-            <v>-0.0053</v>
+            <v>0.016**</v>
           </cell>
           <cell r="F32" t="str">
-            <v>0.014**</v>
+            <v>0.0098</v>
           </cell>
           <cell r="G32" t="str">
-            <v>0.0028</v>
-          </cell>
-          <cell r="AA32" t="str">
-            <v>0.017**</v>
-          </cell>
-          <cell r="AB32" t="str">
-            <v>0.0023</v>
-          </cell>
-          <cell r="AD32" t="str">
-            <v>0.0063</v>
-          </cell>
-          <cell r="AE32" t="str">
-            <v>-0.026***</v>
+            <v>0.0093</v>
+          </cell>
+          <cell r="I32" t="str">
+            <v>0.010</v>
+          </cell>
+          <cell r="J32" t="str">
+            <v>0.010</v>
           </cell>
         </row>
         <row r="33">
           <cell r="C33" t="str">
-            <v>(0.0034)</v>
+            <v>(0.0065)</v>
           </cell>
           <cell r="D33" t="str">
-            <v>(0.0034)</v>
+            <v>(0.0066)</v>
           </cell>
           <cell r="F33" t="str">
-            <v>(0.0073)</v>
+            <v>(0.014)</v>
           </cell>
           <cell r="G33" t="str">
-            <v>(0.0070)</v>
-          </cell>
-          <cell r="AA33" t="str">
-            <v>(0.0081)</v>
-          </cell>
-          <cell r="AB33" t="str">
-            <v>(0.0079)</v>
-          </cell>
-          <cell r="AD33" t="str">
-            <v>(0.0088)</v>
-          </cell>
-          <cell r="AE33" t="str">
-            <v>(0.0086)</v>
+            <v>(0.014)</v>
+          </cell>
+          <cell r="I33" t="str">
+            <v>(0.015)</v>
+          </cell>
+          <cell r="J33" t="str">
+            <v>(0.015)</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35" t="str">
-            <v>0.000072</v>
+            <v>-0.00061**</v>
           </cell>
           <cell r="D35" t="str">
-            <v>0.00012</v>
+            <v>-0.00060**</v>
           </cell>
           <cell r="F35" t="str">
-            <v>-0.00072**</v>
+            <v>-0.00083*</v>
           </cell>
           <cell r="G35" t="str">
-            <v>-0.00062**</v>
-          </cell>
-          <cell r="AA35" t="str">
-            <v>-0.00063**</v>
-          </cell>
-          <cell r="AB35" t="str">
-            <v>-0.00058*</v>
-          </cell>
-          <cell r="AD35" t="str">
-            <v>-0.000042</v>
-          </cell>
-          <cell r="AE35" t="str">
-            <v>0.000080</v>
+            <v>-0.00080*</v>
+          </cell>
+          <cell r="I35" t="str">
+            <v>-0.00022</v>
+          </cell>
+          <cell r="J35" t="str">
+            <v>-0.00021</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36" t="str">
-            <v>(0.00014)</v>
+            <v>(0.00024)</v>
           </cell>
           <cell r="D36" t="str">
-            <v>(0.00014)</v>
+            <v>(0.00024)</v>
           </cell>
           <cell r="F36" t="str">
-            <v>(0.00028)</v>
+            <v>(0.00048)</v>
           </cell>
           <cell r="G36" t="str">
-            <v>(0.00028)</v>
-          </cell>
-          <cell r="AA36" t="str">
-            <v>(0.00030)</v>
-          </cell>
-          <cell r="AB36" t="str">
-            <v>(0.00030)</v>
-          </cell>
-          <cell r="AD36" t="str">
-            <v>(0.00029)</v>
-          </cell>
-          <cell r="AE36" t="str">
-            <v>(0.00029)</v>
+            <v>(0.00048)</v>
+          </cell>
+          <cell r="I36" t="str">
+            <v>(0.00050)</v>
+          </cell>
+          <cell r="J36" t="str">
+            <v>(0.00050)</v>
           </cell>
         </row>
         <row r="38">
           <cell r="C38" t="str">
-            <v>-0.0000014</v>
+            <v>0.0000064**</v>
           </cell>
           <cell r="D38" t="str">
-            <v>-0.00000056</v>
+            <v>0.0000062**</v>
           </cell>
           <cell r="F38" t="str">
-            <v>0.0000098***</v>
+            <v>0.000011**</v>
           </cell>
           <cell r="G38" t="str">
-            <v>0.000010***</v>
-          </cell>
-          <cell r="AA38" t="str">
-            <v>0.0000084**</v>
-          </cell>
-          <cell r="AB38" t="str">
-            <v>0.0000096***</v>
-          </cell>
-          <cell r="AD38" t="str">
-            <v>0.0000021</v>
-          </cell>
-          <cell r="AE38" t="str">
-            <v>0.0000058*</v>
+            <v>0.000011**</v>
+          </cell>
+          <cell r="I38" t="str">
+            <v>0.0000035</v>
+          </cell>
+          <cell r="J38" t="str">
+            <v>0.0000033</v>
           </cell>
         </row>
         <row r="39">
-          <cell r="A39" t="str">
-            <v/>
-          </cell>
           <cell r="C39" t="str">
-            <v>(0.0000016)</v>
+            <v>(0.0000027)</v>
           </cell>
           <cell r="D39" t="str">
-            <v>(0.0000016)</v>
+            <v>(0.0000027)</v>
           </cell>
           <cell r="F39" t="str">
-            <v>(0.0000034)</v>
+            <v>(0.0000053)</v>
           </cell>
           <cell r="G39" t="str">
-            <v>(0.0000034)</v>
-          </cell>
-          <cell r="AA39" t="str">
-            <v>(0.0000036)</v>
-          </cell>
-          <cell r="AB39" t="str">
-            <v>(0.0000035)</v>
-          </cell>
-          <cell r="AD39" t="str">
-            <v>(0.0000032)</v>
-          </cell>
-          <cell r="AE39" t="str">
-            <v>(0.0000032)</v>
+            <v>(0.0000053)</v>
+          </cell>
+          <cell r="I39" t="str">
+            <v>(0.0000051)</v>
+          </cell>
+          <cell r="J39" t="str">
+            <v>(0.0000050)</v>
           </cell>
         </row>
         <row r="41">
           <cell r="C41" t="str">
-            <v>-0.30***</v>
+            <v>-0.40***</v>
           </cell>
           <cell r="D41" t="str">
-            <v>-0.37***</v>
+            <v>-0.40***</v>
           </cell>
           <cell r="F41" t="str">
-            <v>-0.92***</v>
+            <v>-1.27***</v>
           </cell>
           <cell r="G41" t="str">
-            <v>-1.01***</v>
-          </cell>
-          <cell r="AA41" t="str">
-            <v>-0.97***</v>
-          </cell>
-          <cell r="AB41" t="str">
-            <v>-1.10***</v>
-          </cell>
-          <cell r="AD41" t="str">
-            <v>-0.82***</v>
-          </cell>
-          <cell r="AE41" t="str">
-            <v>-1.07***</v>
+            <v>-1.27***</v>
+          </cell>
+          <cell r="I41" t="str">
+            <v>-0.83***</v>
+          </cell>
+          <cell r="J41" t="str">
+            <v>-0.83***</v>
           </cell>
         </row>
         <row r="42">
@@ -921,218 +752,104 @@
             <v/>
           </cell>
           <cell r="C42" t="str">
-            <v>(0.044)</v>
+            <v>(0.072)</v>
           </cell>
           <cell r="D42" t="str">
-            <v>(0.042)</v>
+            <v>(0.072)</v>
           </cell>
           <cell r="F42" t="str">
-            <v>(0.12)</v>
+            <v>(0.23)</v>
           </cell>
           <cell r="G42" t="str">
-            <v>(0.12)</v>
-          </cell>
-          <cell r="AA42" t="str">
-            <v>(0.12)</v>
-          </cell>
-          <cell r="AB42" t="str">
-            <v>(0.12)</v>
-          </cell>
-          <cell r="AD42" t="str">
-            <v>(0.12)</v>
-          </cell>
-          <cell r="AE42" t="str">
-            <v>(0.12)</v>
+            <v>(0.23)</v>
+          </cell>
+          <cell r="I42" t="str">
+            <v>(0.16)</v>
+          </cell>
+          <cell r="J42" t="str">
+            <v>(0.16)</v>
           </cell>
         </row>
         <row r="44">
           <cell r="C44" t="str">
-            <v>0.00033***</v>
+            <v>16884</v>
           </cell>
           <cell r="D44" t="str">
-            <v>-0.00036***</v>
+            <v>16884</v>
           </cell>
           <cell r="F44" t="str">
-            <v>0.0029***</v>
+            <v>16884</v>
           </cell>
           <cell r="G44" t="str">
-            <v>0.0021***</v>
-          </cell>
-          <cell r="AA44" t="str">
-            <v>0.0030***</v>
-          </cell>
-          <cell r="AB44" t="str">
-            <v>0.0021***</v>
-          </cell>
-          <cell r="AD44" t="str">
-            <v>0.0067***</v>
-          </cell>
-          <cell r="AE44" t="str">
-            <v>0.0044***</v>
+            <v>16884</v>
+          </cell>
+          <cell r="I44" t="str">
+            <v>16884</v>
+          </cell>
+          <cell r="J44" t="str">
+            <v>16884</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v/>
+            <v>R-sq</v>
           </cell>
           <cell r="C45" t="str">
-            <v>(0.00011)</v>
+            <v>0.218</v>
           </cell>
           <cell r="D45" t="str">
-            <v>(0.000088)</v>
+            <v>0.217</v>
           </cell>
           <cell r="F45" t="str">
-            <v>(0.00040)</v>
+            <v>0.211</v>
           </cell>
           <cell r="G45" t="str">
-            <v>(0.00027)</v>
-          </cell>
-          <cell r="AA45" t="str">
-            <v>(0.00041)</v>
-          </cell>
-          <cell r="AB45" t="str">
-            <v>(0.00028)</v>
-          </cell>
-          <cell r="AD45" t="str">
-            <v>(0.00043)</v>
-          </cell>
-          <cell r="AE45" t="str">
-            <v>(0.00028)</v>
+            <v>0.210</v>
+          </cell>
+          <cell r="I45" t="str">
+            <v>0.181</v>
+          </cell>
+          <cell r="J45" t="str">
+            <v>0.180</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46" t="str">
+            <v>8.16</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>8.44</v>
+          </cell>
+          <cell r="F46" t="str">
+            <v>3.07</v>
+          </cell>
+          <cell r="G46" t="str">
+            <v>3.16</v>
+          </cell>
+          <cell r="I46" t="str">
+            <v>2.62</v>
+          </cell>
+          <cell r="J46" t="str">
+            <v>2.79</v>
           </cell>
         </row>
         <row r="47">
           <cell r="C47" t="str">
-            <v>23200</v>
+            <v>0.15</v>
           </cell>
           <cell r="D47" t="str">
-            <v>23200</v>
+            <v/>
           </cell>
           <cell r="F47" t="str">
-            <v>23200</v>
+            <v>0.39</v>
           </cell>
           <cell r="G47" t="str">
-            <v>23200</v>
-          </cell>
-          <cell r="AA47" t="str">
-            <v>23402</v>
-          </cell>
-          <cell r="AB47" t="str">
-            <v>23402</v>
-          </cell>
-          <cell r="AD47" t="str">
-            <v>23464</v>
-          </cell>
-          <cell r="AE47" t="str">
-            <v>23464</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>R-sq</v>
-          </cell>
-          <cell r="C48" t="str">
-            <v>0.163</v>
-          </cell>
-          <cell r="D48" t="str">
-            <v>0.151</v>
-          </cell>
-          <cell r="F48" t="str">
-            <v>0.173</v>
-          </cell>
-          <cell r="G48" t="str">
-            <v>0.164</v>
-          </cell>
-          <cell r="AA48" t="str">
-            <v>0.233</v>
-          </cell>
-          <cell r="AB48" t="str">
-            <v>0.224</v>
-          </cell>
-          <cell r="AD48" t="str">
-            <v>0.471</v>
-          </cell>
-          <cell r="AE48" t="str">
-            <v>0.457</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49" t="str">
-            <v>22.5</v>
-          </cell>
-          <cell r="D49" t="str">
-            <v>19.7</v>
-          </cell>
-          <cell r="F49" t="str">
-            <v>8.53</v>
-          </cell>
-          <cell r="G49" t="str">
-            <v>21.8</v>
-          </cell>
-          <cell r="AA49" t="str">
-            <v>9.17</v>
-          </cell>
-          <cell r="AB49" t="str">
-            <v>24.0</v>
-          </cell>
-          <cell r="AD49" t="str">
-            <v>11.9</v>
-          </cell>
-          <cell r="AE49" t="str">
-            <v>53.5</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50" t="str">
-            <v>0.0013</v>
-          </cell>
-          <cell r="D50" t="str">
-            <v/>
-          </cell>
-          <cell r="F50" t="str">
-            <v>0.090</v>
-          </cell>
-          <cell r="G50" t="str">
-            <v/>
-          </cell>
-          <cell r="AA50" t="str">
-            <v>0.081</v>
-          </cell>
-          <cell r="AB50" t="str">
-            <v/>
-          </cell>
-          <cell r="AD50" t="str">
-            <v>0.15</v>
-          </cell>
-          <cell r="AE50" t="str">
-            <v/>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="pretime_trends_instrument_16q"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
+            <v/>
+          </cell>
+          <cell r="I47" t="str">
+            <v>0.48</v>
+          </cell>
+          <cell r="J47" t="str">
             <v/>
           </cell>
         </row>
@@ -1439,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD70BB4-AC57-43E9-A225-B2A3FAF885B6}">
-  <dimension ref="A2:L39"/>
+  <dimension ref="A2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1453,33 +1170,26 @@
     <col min="5" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.90625" style="3" customWidth="1"/>
     <col min="8" max="9" width="10.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.36328125" style="3" customWidth="1"/>
-    <col min="11" max="12" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="7"/>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="7"/>
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="str">
         <f>[1]pretime_trends_instrument_4q!A2</f>
         <v/>
@@ -1510,21 +1220,14 @@
         <f>[1]pretime_trends_instrument_4q!G2</f>
         <v>(6)</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C5</f>
-        <v>-0.019</v>
+        <v>-0.070</v>
       </c>
       <c r="C4" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D5</f>
@@ -1532,36 +1235,28 @@
       </c>
       <c r="E4" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F5</f>
-        <v>0.083</v>
+        <v>0.0097</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G5</f>
         <v/>
       </c>
       <c r="H4" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA5</f>
-        <v>0.085</v>
+        <f>[1]pretime_trends_instrument_4q!I5</f>
+        <v>-0.011</v>
       </c>
       <c r="I4" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB5</f>
-        <v/>
-      </c>
-      <c r="K4" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD5</f>
-        <v>0.037</v>
-      </c>
-      <c r="L4" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE5</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <f>[1]pretime_trends_instrument_4q!J5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C6</f>
-        <v>(0.033)</v>
+        <v>(0.060)</v>
       </c>
       <c r="C5" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D6</f>
@@ -1569,36 +1264,28 @@
       </c>
       <c r="E5" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F6</f>
-        <v>(0.071)</v>
+        <v>(0.089)</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G6</f>
         <v/>
       </c>
       <c r="H5" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA6</f>
-        <v>(0.071)</v>
+        <f>[1]pretime_trends_instrument_4q!I6</f>
+        <v>(0.089)</v>
       </c>
       <c r="I5" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB6</f>
-        <v/>
-      </c>
-      <c r="K5" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD6</f>
-        <v>(0.057)</v>
-      </c>
-      <c r="L5" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <f>[1]pretime_trends_instrument_4q!J6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C8</f>
-        <v>0.015</v>
+        <v>0.033</v>
       </c>
       <c r="C6" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D8</f>
@@ -1606,36 +1293,28 @@
       </c>
       <c r="E6" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F8</f>
-        <v>-0.016</v>
+        <v>0.010</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G8</f>
         <v/>
       </c>
       <c r="H6" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA8</f>
-        <v>-0.032</v>
+        <f>[1]pretime_trends_instrument_4q!I8</f>
+        <v>0.028</v>
       </c>
       <c r="I6" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB8</f>
-        <v/>
-      </c>
-      <c r="K6" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD8</f>
-        <v>0.058</v>
-      </c>
-      <c r="L6" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <f>[1]pretime_trends_instrument_4q!J8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C9</f>
-        <v>(0.016)</v>
+        <v>(0.032)</v>
       </c>
       <c r="C7" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D9</f>
@@ -1643,36 +1322,28 @@
       </c>
       <c r="E7" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F9</f>
-        <v>(0.032)</v>
+        <v>(0.064)</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G9</f>
         <v/>
       </c>
       <c r="H7" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA9</f>
-        <v>(0.033)</v>
+        <f>[1]pretime_trends_instrument_4q!I9</f>
+        <v>(0.073)</v>
       </c>
       <c r="I7" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB9</f>
-        <v/>
-      </c>
-      <c r="K7" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD9</f>
-        <v>(0.046)</v>
-      </c>
-      <c r="L7" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <f>[1]pretime_trends_instrument_4q!J9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C11</f>
-        <v>-0.0030</v>
+        <v>-0.012</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D11</f>
@@ -1680,36 +1351,28 @@
       </c>
       <c r="E8" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F11</f>
-        <v>-0.016</v>
+        <v>-0.010</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G11</f>
         <v/>
       </c>
       <c r="H8" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA11</f>
-        <v>-0.018</v>
+        <f>[1]pretime_trends_instrument_4q!I11</f>
+        <v>0.010</v>
       </c>
       <c r="I8" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB11</f>
-        <v/>
-      </c>
-      <c r="K8" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD11</f>
-        <v>-0.033</v>
-      </c>
-      <c r="L8" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE11</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <f>[1]pretime_trends_instrument_4q!J11</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C12</f>
-        <v>(0.018)</v>
+        <v>(0.029)</v>
       </c>
       <c r="C9" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D12</f>
@@ -1717,36 +1380,28 @@
       </c>
       <c r="E9" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F12</f>
-        <v>(0.032)</v>
+        <v>(0.051)</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G12</f>
         <v/>
       </c>
       <c r="H9" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA12</f>
-        <v>(0.032)</v>
+        <f>[1]pretime_trends_instrument_4q!I12</f>
+        <v>(0.059)</v>
       </c>
       <c r="I9" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB12</f>
-        <v/>
-      </c>
-      <c r="K9" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD12</f>
-        <v>(0.035)</v>
-      </c>
-      <c r="L9" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <f>[1]pretime_trends_instrument_4q!J12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C14</f>
-        <v>0.014</v>
+        <v>0.00030</v>
       </c>
       <c r="C10" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D14</f>
@@ -1754,36 +1409,28 @@
       </c>
       <c r="E10" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F14</f>
-        <v>-0.066**</v>
+        <v>-0.042</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G14</f>
         <v/>
       </c>
       <c r="H10" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA14</f>
-        <v>-0.066**</v>
+        <f>[1]pretime_trends_instrument_4q!I14</f>
+        <v>-0.064</v>
       </c>
       <c r="I10" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB14</f>
-        <v/>
-      </c>
-      <c r="K10" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD14</f>
-        <v>-0.11**</v>
-      </c>
-      <c r="L10" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE14</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <f>[1]pretime_trends_instrument_4q!J14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C15</f>
-        <v>(0.015)</v>
+        <v>(0.032)</v>
       </c>
       <c r="C11" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D15</f>
@@ -1791,36 +1438,28 @@
       </c>
       <c r="E11" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F15</f>
-        <v>(0.031)</v>
+        <v>(0.061)</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G15</f>
         <v/>
       </c>
       <c r="H11" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA15</f>
-        <v>(0.030)</v>
+        <f>[1]pretime_trends_instrument_4q!I15</f>
+        <v>(0.060)</v>
       </c>
       <c r="I11" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB15</f>
-        <v/>
-      </c>
-      <c r="K11" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD15</f>
-        <v>(0.044)</v>
-      </c>
-      <c r="L11" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <f>[1]pretime_trends_instrument_4q!J15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C17</f>
-        <v>-0.070</v>
+        <v>-0.032</v>
       </c>
       <c r="C12" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D17</f>
@@ -1828,36 +1467,28 @@
       </c>
       <c r="E12" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F17</f>
-        <v>-0.11</v>
+        <v>-0.090</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G17</f>
         <v/>
       </c>
       <c r="H12" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA17</f>
-        <v>-0.095</v>
+        <f>[1]pretime_trends_instrument_4q!I17</f>
+        <v>0.024</v>
       </c>
       <c r="I12" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB17</f>
-        <v/>
-      </c>
-      <c r="K12" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD17</f>
-        <v>0.0083</v>
-      </c>
-      <c r="L12" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE17</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <f>[1]pretime_trends_instrument_4q!J17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C18</f>
-        <v>(0.044)</v>
+        <v>(0.072)</v>
       </c>
       <c r="C13" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D18</f>
@@ -1865,36 +1496,28 @@
       </c>
       <c r="E13" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F18</f>
-        <v>(0.095)</v>
+        <v>(0.075)</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G18</f>
         <v/>
       </c>
       <c r="H13" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA18</f>
-        <v>(0.095)</v>
+        <f>[1]pretime_trends_instrument_4q!I18</f>
+        <v>(0.066)</v>
       </c>
       <c r="I13" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB18</f>
-        <v/>
-      </c>
-      <c r="K13" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD18</f>
-        <v>(0.055)</v>
-      </c>
-      <c r="L13" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE18</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <f>[1]pretime_trends_instrument_4q!J18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C20</f>
-        <v>-0.00081</v>
+        <v>-0.00066</v>
       </c>
       <c r="C14" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D20</f>
@@ -1902,37 +1525,29 @@
       </c>
       <c r="E14" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F20</f>
-        <v>0.028*</v>
+        <v>0.016</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G20</f>
         <v/>
       </c>
       <c r="H14" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA20</f>
-        <v>0.018</v>
+        <f>[1]pretime_trends_instrument_4q!I20</f>
+        <v>0.010</v>
       </c>
       <c r="I14" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB20</f>
-        <v/>
-      </c>
-      <c r="K14" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD20</f>
-        <v>0.025*</v>
-      </c>
-      <c r="L14" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <f>[1]pretime_trends_instrument_4q!J20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>[1]pretime_trends_instrument_4q!A21</f>
         <v/>
       </c>
       <c r="B15" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C21</f>
-        <v>(0.0070)</v>
+        <v>(0.011)</v>
       </c>
       <c r="C15" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D21</f>
@@ -1940,36 +1555,28 @@
       </c>
       <c r="E15" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F21</f>
-        <v>(0.015)</v>
+        <v>(0.020)</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G21</f>
         <v/>
       </c>
       <c r="H15" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA21</f>
-        <v>(0.014)</v>
+        <f>[1]pretime_trends_instrument_4q!I21</f>
+        <v>(0.019)</v>
       </c>
       <c r="I15" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB21</f>
-        <v/>
-      </c>
-      <c r="K15" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD21</f>
-        <v>(0.015)</v>
-      </c>
-      <c r="L15" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE21</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <f>[1]pretime_trends_instrument_4q!J21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B16" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C23</f>
-        <v>-0.0074</v>
+        <v>-0.020</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D23</f>
@@ -1977,37 +1584,29 @@
       </c>
       <c r="E16" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F23</f>
-        <v>-0.017</v>
+        <v>-0.058**</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G23</f>
         <v/>
       </c>
       <c r="H16" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA23</f>
-        <v>-0.0049</v>
+        <f>[1]pretime_trends_instrument_4q!I23</f>
+        <v>-0.069*</v>
       </c>
       <c r="I16" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB23</f>
-        <v/>
-      </c>
-      <c r="K16" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD23</f>
-        <v>-0.0038</v>
-      </c>
-      <c r="L16" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE23</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <f>[1]pretime_trends_instrument_4q!J23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>[1]pretime_trends_instrument_4q!A24</f>
         <v/>
       </c>
       <c r="B17" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C24</f>
-        <v>(0.0067)</v>
+        <v>(0.013)</v>
       </c>
       <c r="C17" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D24</f>
@@ -2015,32 +1614,24 @@
       </c>
       <c r="E17" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F24</f>
-        <v>(0.015)</v>
+        <v>(0.030)</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G24</f>
         <v/>
       </c>
       <c r="H17" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA24</f>
-        <v>(0.015)</v>
+        <f>[1]pretime_trends_instrument_4q!I24</f>
+        <v>(0.037)</v>
       </c>
       <c r="I17" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB24</f>
-        <v/>
-      </c>
-      <c r="K17" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD24</f>
-        <v>(0.020)</v>
-      </c>
-      <c r="L17" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+        <f>[1]pretime_trends_instrument_4q!J24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C26</f>
@@ -2059,23 +1650,15 @@
         <v/>
       </c>
       <c r="H18" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA26</f>
+        <f>[1]pretime_trends_instrument_4q!I26</f>
         <v>0</v>
       </c>
       <c r="I18" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB26</f>
-        <v/>
-      </c>
-      <c r="K18" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD26</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE26</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+        <f>[1]pretime_trends_instrument_4q!J26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>[1]pretime_trends_instrument_4q!A27</f>
         <v/>
@@ -2097,684 +1680,463 @@
         <v/>
       </c>
       <c r="H19" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA27</f>
+        <f>[1]pretime_trends_instrument_4q!I27</f>
         <v>(.)</v>
       </c>
       <c r="I19" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB27</f>
-        <v/>
-      </c>
-      <c r="K19" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD27</f>
-        <v>(.)</v>
-      </c>
-      <c r="L19" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE27</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+        <f>[1]pretime_trends_instrument_4q!J27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B20" s="4" t="str">
         <f>[1]pretime_trends_instrument_4q!C29</f>
-        <v>-0.0081</v>
+        <v>0.026</v>
       </c>
       <c r="C20" s="4" t="str">
         <f>[1]pretime_trends_instrument_4q!D29</f>
-        <v>-0.061</v>
+        <v>0.020</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="str">
         <f>[1]pretime_trends_instrument_4q!F29</f>
-        <v>-0.33***</v>
+        <v>-0.13</v>
       </c>
       <c r="F20" s="4" t="str">
         <f>[1]pretime_trends_instrument_4q!G29</f>
-        <v>-0.18**</v>
+        <v>-0.14</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA29</f>
-        <v>-0.36***</v>
+        <f>[1]pretime_trends_instrument_4q!I29</f>
+        <v>-0.24</v>
       </c>
       <c r="I20" s="4" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB29</f>
-        <v>-0.17*</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD29</f>
-        <v>-0.69***</v>
-      </c>
-      <c r="L20" s="4" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE29</f>
-        <v>-0.62***</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+        <f>[1]pretime_trends_instrument_4q!J29</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>[1]pretime_trends_instrument_4q!A30</f>
         <v/>
       </c>
       <c r="B21" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C30</f>
-        <v>(0.050)</v>
+        <v>(0.11)</v>
       </c>
       <c r="C21" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D30</f>
-        <v>(0.038)</v>
+        <v>(0.11)</v>
       </c>
       <c r="E21" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F30</f>
-        <v>(0.12)</v>
+        <v>(0.28)</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G30</f>
-        <v>(0.085)</v>
+        <v>(0.28)</v>
       </c>
       <c r="H21" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA30</f>
-        <v>(0.13)</v>
+        <f>[1]pretime_trends_instrument_4q!I30</f>
+        <v>(0.22)</v>
       </c>
       <c r="I21" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB30</f>
-        <v>(0.092)</v>
-      </c>
-      <c r="K21" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD30</f>
-        <v>(0.15)</v>
-      </c>
-      <c r="L21" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE30</f>
-        <v>(0.098)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+        <f>[1]pretime_trends_instrument_4q!J30</f>
+        <v>(0.22)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C32</f>
-        <v>0.0041</v>
+        <v>0.017**</v>
       </c>
       <c r="C22" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D32</f>
-        <v>-0.0053</v>
+        <v>0.016**</v>
       </c>
       <c r="E22" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F32</f>
-        <v>0.014**</v>
+        <v>0.0098</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G32</f>
-        <v>0.0028</v>
+        <v>0.0093</v>
       </c>
       <c r="H22" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA32</f>
-        <v>0.017**</v>
+        <f>[1]pretime_trends_instrument_4q!I32</f>
+        <v>0.010</v>
       </c>
       <c r="I22" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB32</f>
-        <v>0.0023</v>
-      </c>
-      <c r="K22" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD32</f>
-        <v>0.0063</v>
-      </c>
-      <c r="L22" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE32</f>
-        <v>-0.026***</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" t="str">
-        <f>[2]pretime_trends_instrument_16q!A33</f>
-        <v/>
-      </c>
+        <f>[1]pretime_trends_instrument_4q!J32</f>
+        <v>0.010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C33</f>
-        <v>(0.0034)</v>
+        <v>(0.0065)</v>
       </c>
       <c r="C23" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D33</f>
-        <v>(0.0034)</v>
+        <v>(0.0066)</v>
       </c>
       <c r="E23" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F33</f>
-        <v>(0.0073)</v>
+        <v>(0.014)</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G33</f>
-        <v>(0.0070)</v>
+        <v>(0.014)</v>
       </c>
       <c r="H23" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA33</f>
-        <v>(0.0081)</v>
+        <f>[1]pretime_trends_instrument_4q!I33</f>
+        <v>(0.015)</v>
       </c>
       <c r="I23" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB33</f>
-        <v>(0.0079)</v>
-      </c>
-      <c r="K23" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD33</f>
-        <v>(0.0088)</v>
-      </c>
-      <c r="L23" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE33</f>
-        <v>(0.0086)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+        <f>[1]pretime_trends_instrument_4q!J33</f>
+        <v>(0.015)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C35</f>
-        <v>0.000072</v>
+        <v>-0.00061**</v>
       </c>
       <c r="C24" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D35</f>
-        <v>0.00012</v>
+        <v>-0.00060**</v>
       </c>
       <c r="E24" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F35</f>
-        <v>-0.00072**</v>
+        <v>-0.00083*</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G35</f>
-        <v>-0.00062**</v>
+        <v>-0.00080*</v>
       </c>
       <c r="H24" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA35</f>
-        <v>-0.00063**</v>
+        <f>[1]pretime_trends_instrument_4q!I35</f>
+        <v>-0.00022</v>
       </c>
       <c r="I24" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB35</f>
-        <v>-0.00058*</v>
-      </c>
-      <c r="K24" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD35</f>
-        <v>-0.000042</v>
-      </c>
-      <c r="L24" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE35</f>
-        <v>0.000080</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" t="str">
-        <f>[2]pretime_trends_instrument_16q!A36</f>
-        <v/>
-      </c>
+        <f>[1]pretime_trends_instrument_4q!J35</f>
+        <v>-0.00021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C36</f>
-        <v>(0.00014)</v>
+        <v>(0.00024)</v>
       </c>
       <c r="C25" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D36</f>
-        <v>(0.00014)</v>
+        <v>(0.00024)</v>
       </c>
       <c r="E25" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F36</f>
-        <v>(0.00028)</v>
+        <v>(0.00048)</v>
       </c>
       <c r="F25" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G36</f>
-        <v>(0.00028)</v>
+        <v>(0.00048)</v>
       </c>
       <c r="H25" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA36</f>
-        <v>(0.00030)</v>
+        <f>[1]pretime_trends_instrument_4q!I36</f>
+        <v>(0.00050)</v>
       </c>
       <c r="I25" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB36</f>
-        <v>(0.00030)</v>
-      </c>
-      <c r="K25" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD36</f>
-        <v>(0.00029)</v>
-      </c>
-      <c r="L25" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE36</f>
-        <v>(0.00029)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+        <f>[1]pretime_trends_instrument_4q!J36</f>
+        <v>(0.00050)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B26" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C38</f>
-        <v>-0.0000014</v>
+        <v>0.0000064**</v>
       </c>
       <c r="C26" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D38</f>
-        <v>-0.00000056</v>
+        <v>0.0000062**</v>
       </c>
       <c r="E26" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F38</f>
-        <v>0.0000098***</v>
+        <v>0.000011**</v>
       </c>
       <c r="F26" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G38</f>
-        <v>0.000010***</v>
+        <v>0.000011**</v>
       </c>
       <c r="H26" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA38</f>
-        <v>0.0000084**</v>
+        <f>[1]pretime_trends_instrument_4q!I38</f>
+        <v>0.0000035</v>
       </c>
       <c r="I26" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB38</f>
-        <v>0.0000096***</v>
-      </c>
-      <c r="K26" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD38</f>
-        <v>0.0000021</v>
-      </c>
-      <c r="L26" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE38</f>
-        <v>0.0000058*</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" t="str">
-        <f>[1]pretime_trends_instrument_4q!A39</f>
-        <v/>
-      </c>
+        <f>[1]pretime_trends_instrument_4q!J38</f>
+        <v>0.0000033</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C39</f>
-        <v>(0.0000016)</v>
+        <v>(0.0000027)</v>
       </c>
       <c r="C27" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D39</f>
-        <v>(0.0000016)</v>
+        <v>(0.0000027)</v>
       </c>
       <c r="E27" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F39</f>
-        <v>(0.0000034)</v>
+        <v>(0.0000053)</v>
       </c>
       <c r="F27" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G39</f>
-        <v>(0.0000034)</v>
+        <v>(0.0000053)</v>
       </c>
       <c r="H27" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA39</f>
-        <v>(0.0000036)</v>
+        <f>[1]pretime_trends_instrument_4q!I39</f>
+        <v>(0.0000051)</v>
       </c>
       <c r="I27" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB39</f>
-        <v>(0.0000035)</v>
-      </c>
-      <c r="K27" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD39</f>
-        <v>(0.0000032)</v>
-      </c>
-      <c r="L27" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE39</f>
-        <v>(0.0000032)</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+        <f>[1]pretime_trends_instrument_4q!J39</f>
+        <v>(0.0000050)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B28" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C41</f>
-        <v>-0.30***</v>
+        <v>-0.40***</v>
       </c>
       <c r="C28" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D41</f>
-        <v>-0.37***</v>
+        <v>-0.40***</v>
       </c>
       <c r="E28" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F41</f>
-        <v>-0.92***</v>
+        <v>-1.27***</v>
       </c>
       <c r="F28" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G41</f>
-        <v>-1.01***</v>
+        <v>-1.27***</v>
       </c>
       <c r="H28" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA41</f>
-        <v>-0.97***</v>
+        <f>[1]pretime_trends_instrument_4q!I41</f>
+        <v>-0.83***</v>
       </c>
       <c r="I28" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB41</f>
-        <v>-1.10***</v>
-      </c>
-      <c r="K28" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD41</f>
-        <v>-0.82***</v>
-      </c>
-      <c r="L28" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE41</f>
-        <v>-1.07***</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+        <f>[1]pretime_trends_instrument_4q!J41</f>
+        <v>-0.83***</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>[1]pretime_trends_instrument_4q!A42</f>
         <v/>
       </c>
       <c r="B29" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C42</f>
-        <v>(0.044)</v>
+        <v>(0.072)</v>
       </c>
       <c r="C29" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D42</f>
-        <v>(0.042)</v>
+        <v>(0.072)</v>
       </c>
       <c r="E29" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F42</f>
-        <v>(0.12)</v>
+        <v>(0.23)</v>
       </c>
       <c r="F29" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G42</f>
-        <v>(0.12)</v>
+        <v>(0.23)</v>
       </c>
       <c r="H29" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA42</f>
-        <v>(0.12)</v>
+        <f>[1]pretime_trends_instrument_4q!I42</f>
+        <v>(0.16)</v>
       </c>
       <c r="I29" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB42</f>
-        <v>(0.12)</v>
-      </c>
-      <c r="K29" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD42</f>
-        <v>(0.12)</v>
-      </c>
-      <c r="L29" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE42</f>
-        <v>(0.12)</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="3" t="str">
+        <f>[1]pretime_trends_instrument_4q!J42</f>
+        <v>(0.16)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="4" t="str">
         <f>[1]pretime_trends_instrument_4q!C44</f>
-        <v>0.00033***</v>
-      </c>
-      <c r="C30" s="3" t="str">
+        <v>16884</v>
+      </c>
+      <c r="C31" s="4" t="str">
         <f>[1]pretime_trends_instrument_4q!D44</f>
-        <v>-0.00036***</v>
-      </c>
-      <c r="E30" s="3" t="str">
+        <v>16884</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="str">
         <f>[1]pretime_trends_instrument_4q!F44</f>
-        <v>0.0029***</v>
-      </c>
-      <c r="F30" s="3" t="str">
+        <v>16884</v>
+      </c>
+      <c r="F31" s="4" t="str">
         <f>[1]pretime_trends_instrument_4q!G44</f>
-        <v>0.0021***</v>
-      </c>
-      <c r="H30" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA44</f>
-        <v>0.0030***</v>
-      </c>
-      <c r="I30" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB44</f>
-        <v>0.0021***</v>
-      </c>
-      <c r="K30" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD44</f>
-        <v>0.0067***</v>
-      </c>
-      <c r="L30" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE44</f>
-        <v>0.0044***</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" t="str">
+        <v>16884</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4" t="str">
+        <f>[1]pretime_trends_instrument_4q!I44</f>
+        <v>16884</v>
+      </c>
+      <c r="I31" s="4" t="str">
+        <f>[1]pretime_trends_instrument_4q!J44</f>
+        <v>16884</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
         <f>[1]pretime_trends_instrument_4q!A45</f>
-        <v/>
-      </c>
-      <c r="B31" s="3" t="str">
+        <v>R-sq</v>
+      </c>
+      <c r="B32" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C45</f>
-        <v>(0.00011)</v>
-      </c>
-      <c r="C31" s="3" t="str">
+        <v>0.218</v>
+      </c>
+      <c r="C32" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D45</f>
-        <v>(0.000088)</v>
-      </c>
-      <c r="E31" s="3" t="str">
+        <v>0.217</v>
+      </c>
+      <c r="E32" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F45</f>
-        <v>(0.00040)</v>
-      </c>
-      <c r="F31" s="3" t="str">
+        <v>0.211</v>
+      </c>
+      <c r="F32" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G45</f>
-        <v>(0.00027)</v>
-      </c>
-      <c r="H31" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA45</f>
-        <v>(0.00041)</v>
-      </c>
-      <c r="I31" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB45</f>
-        <v>(0.00028)</v>
-      </c>
-      <c r="K31" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD45</f>
-        <v>(0.00043)</v>
-      </c>
-      <c r="L31" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE45</f>
-        <v>(0.00028)</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="4" t="str">
+        <v>0.210</v>
+      </c>
+      <c r="H32" s="3" t="str">
+        <f>[1]pretime_trends_instrument_4q!I45</f>
+        <v>0.181</v>
+      </c>
+      <c r="I32" s="3" t="str">
+        <f>[1]pretime_trends_instrument_4q!J45</f>
+        <v>0.180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="3" t="str">
+        <f>[1]pretime_trends_instrument_4q!C46</f>
+        <v>8.16</v>
+      </c>
+      <c r="C33" s="3" t="str">
+        <f>[1]pretime_trends_instrument_4q!D46</f>
+        <v>8.44</v>
+      </c>
+      <c r="E33" s="3" t="str">
+        <f>[1]pretime_trends_instrument_4q!F46</f>
+        <v>3.07</v>
+      </c>
+      <c r="F33" s="3" t="str">
+        <f>[1]pretime_trends_instrument_4q!G46</f>
+        <v>3.16</v>
+      </c>
+      <c r="H33" s="3" t="str">
+        <f>[1]pretime_trends_instrument_4q!I46</f>
+        <v>2.62</v>
+      </c>
+      <c r="I33" s="3" t="str">
+        <f>[1]pretime_trends_instrument_4q!J46</f>
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C47</f>
-        <v>23200</v>
-      </c>
-      <c r="C33" s="4" t="str">
+        <v>0.15</v>
+      </c>
+      <c r="C34" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!D47</f>
-        <v>23200</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="str">
+        <v/>
+      </c>
+      <c r="E34" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F47</f>
-        <v>23200</v>
-      </c>
-      <c r="F33" s="4" t="str">
+        <v>0.39</v>
+      </c>
+      <c r="F34" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G47</f>
-        <v>23200</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA47</f>
-        <v>23402</v>
-      </c>
-      <c r="I33" s="4" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB47</f>
-        <v>23402</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD47</f>
-        <v>23464</v>
-      </c>
-      <c r="L33" s="4" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE47</f>
-        <v>23464</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" t="str">
-        <f>[1]pretime_trends_instrument_4q!A48</f>
-        <v>R-sq</v>
-      </c>
-      <c r="B34" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!C48</f>
-        <v>0.163</v>
-      </c>
-      <c r="C34" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!D48</f>
-        <v>0.151</v>
-      </c>
-      <c r="E34" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!F48</f>
-        <v>0.173</v>
-      </c>
-      <c r="F34" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!G48</f>
-        <v>0.164</v>
+        <v/>
       </c>
       <c r="H34" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA48</f>
-        <v>0.233</v>
+        <f>[1]pretime_trends_instrument_4q!I47</f>
+        <v>0.48</v>
       </c>
       <c r="I34" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB48</f>
-        <v>0.224</v>
-      </c>
-      <c r="K34" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD48</f>
-        <v>0.471</v>
-      </c>
-      <c r="L34" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE48</f>
-        <v>0.457</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+        <f>[1]pretime_trends_instrument_4q!J47</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!C49</f>
-        <v>22.5</v>
-      </c>
-      <c r="C35" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!D49</f>
-        <v>19.7</v>
-      </c>
-      <c r="E35" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!F49</f>
-        <v>8.53</v>
-      </c>
-      <c r="F35" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!G49</f>
-        <v>21.8</v>
-      </c>
-      <c r="H35" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA49</f>
-        <v>9.17</v>
-      </c>
-      <c r="I35" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB49</f>
-        <v>24.0</v>
-      </c>
-      <c r="K35" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD49</f>
-        <v>11.9</v>
-      </c>
-      <c r="L35" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE49</f>
-        <v>53.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!C50</f>
-        <v>0.0013</v>
-      </c>
-      <c r="C36" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!D50</f>
-        <v/>
-      </c>
-      <c r="E36" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!F50</f>
-        <v>0.090</v>
-      </c>
-      <c r="F36" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!G50</f>
-        <v/>
-      </c>
-      <c r="H36" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AA50</f>
-        <v>0.081</v>
-      </c>
-      <c r="I36" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AB50</f>
-        <v/>
-      </c>
-      <c r="K36" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AD50</f>
-        <v>0.15</v>
-      </c>
-      <c r="L36" s="3" t="str">
-        <f>[1]pretime_trends_instrument_4q!AE50</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+        <v>1</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="K2:L2"/>
+  <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>

--- a/Tables/pretime_trends_instrument_4q.xlsx
+++ b/Tables/pretime_trends_instrument_4q.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA91895-DA84-4926-871B-437A12AA7499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029A579A-EF34-4780-A58C-5C313E2D26BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6990" windowWidth="29040" windowHeight="15720" xr2:uid="{0FA8E6CF-1883-4982-9970-AE9BB2C074EF}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11175" xr2:uid="{0FA8E6CF-1883-4982-9970-AE9BB2C074EF}"/>
   </bookViews>
   <sheets>
     <sheet name="pretime_trends_instrument_4q" sheetId="1" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <t>Employee</t>
   </si>
   <si>
-    <t>Total wage mass</t>
-  </si>
-  <si>
     <t>$\text{Luminosity}$</t>
   </si>
   <si>
@@ -107,6 +104,9 @@
   </si>
   <si>
     <t>$\text{Luminosity}^3$</t>
+  </si>
+  <si>
+    <t>Self-employed</t>
   </si>
 </sst>
 </file>
@@ -243,13 +243,13 @@
             <v/>
           </cell>
           <cell r="F5" t="str">
+            <v>-0.23*</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v/>
+          </cell>
+          <cell r="I5" t="str">
             <v>0.0097</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v/>
-          </cell>
-          <cell r="I5" t="str">
-            <v>-0.011</v>
           </cell>
           <cell r="J5" t="str">
             <v/>
@@ -263,7 +263,7 @@
             <v/>
           </cell>
           <cell r="F6" t="str">
-            <v>(0.089)</v>
+            <v>(0.12)</v>
           </cell>
           <cell r="G6" t="str">
             <v/>
@@ -283,13 +283,13 @@
             <v/>
           </cell>
           <cell r="F8" t="str">
+            <v>0.074</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v/>
+          </cell>
+          <cell r="I8" t="str">
             <v>0.010</v>
-          </cell>
-          <cell r="G8" t="str">
-            <v/>
-          </cell>
-          <cell r="I8" t="str">
-            <v>0.028</v>
           </cell>
           <cell r="J8" t="str">
             <v/>
@@ -303,13 +303,13 @@
             <v/>
           </cell>
           <cell r="F9" t="str">
+            <v>(0.061)</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v/>
+          </cell>
+          <cell r="I9" t="str">
             <v>(0.064)</v>
-          </cell>
-          <cell r="G9" t="str">
-            <v/>
-          </cell>
-          <cell r="I9" t="str">
-            <v>(0.073)</v>
           </cell>
           <cell r="J9" t="str">
             <v/>
@@ -323,13 +323,13 @@
             <v/>
           </cell>
           <cell r="F11" t="str">
+            <v>-0.011</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v/>
+          </cell>
+          <cell r="I11" t="str">
             <v>-0.010</v>
-          </cell>
-          <cell r="G11" t="str">
-            <v/>
-          </cell>
-          <cell r="I11" t="str">
-            <v>0.010</v>
           </cell>
           <cell r="J11" t="str">
             <v/>
@@ -343,13 +343,13 @@
             <v/>
           </cell>
           <cell r="F12" t="str">
+            <v>(0.057)</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v/>
+          </cell>
+          <cell r="I12" t="str">
             <v>(0.051)</v>
-          </cell>
-          <cell r="G12" t="str">
-            <v/>
-          </cell>
-          <cell r="I12" t="str">
-            <v>(0.059)</v>
           </cell>
           <cell r="J12" t="str">
             <v/>
@@ -363,13 +363,13 @@
             <v/>
           </cell>
           <cell r="F14" t="str">
+            <v>0.0027</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v/>
+          </cell>
+          <cell r="I14" t="str">
             <v>-0.042</v>
-          </cell>
-          <cell r="G14" t="str">
-            <v/>
-          </cell>
-          <cell r="I14" t="str">
-            <v>-0.064</v>
           </cell>
           <cell r="J14" t="str">
             <v/>
@@ -383,13 +383,13 @@
             <v/>
           </cell>
           <cell r="F15" t="str">
+            <v>(0.055)</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v/>
+          </cell>
+          <cell r="I15" t="str">
             <v>(0.061)</v>
-          </cell>
-          <cell r="G15" t="str">
-            <v/>
-          </cell>
-          <cell r="I15" t="str">
-            <v>(0.060)</v>
           </cell>
           <cell r="J15" t="str">
             <v/>
@@ -403,13 +403,13 @@
             <v/>
           </cell>
           <cell r="F17" t="str">
+            <v>0.088</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v/>
+          </cell>
+          <cell r="I17" t="str">
             <v>-0.090</v>
-          </cell>
-          <cell r="G17" t="str">
-            <v/>
-          </cell>
-          <cell r="I17" t="str">
-            <v>0.024</v>
           </cell>
           <cell r="J17" t="str">
             <v/>
@@ -423,13 +423,13 @@
             <v/>
           </cell>
           <cell r="F18" t="str">
+            <v>(0.17)</v>
+          </cell>
+          <cell r="G18" t="str">
+            <v/>
+          </cell>
+          <cell r="I18" t="str">
             <v>(0.075)</v>
-          </cell>
-          <cell r="G18" t="str">
-            <v/>
-          </cell>
-          <cell r="I18" t="str">
-            <v>(0.066)</v>
           </cell>
           <cell r="J18" t="str">
             <v/>
@@ -443,13 +443,13 @@
             <v/>
           </cell>
           <cell r="F20" t="str">
+            <v>0.0088</v>
+          </cell>
+          <cell r="G20" t="str">
+            <v/>
+          </cell>
+          <cell r="I20" t="str">
             <v>0.016</v>
-          </cell>
-          <cell r="G20" t="str">
-            <v/>
-          </cell>
-          <cell r="I20" t="str">
-            <v>0.010</v>
           </cell>
           <cell r="J20" t="str">
             <v/>
@@ -466,13 +466,13 @@
             <v/>
           </cell>
           <cell r="F21" t="str">
+            <v>(0.024)</v>
+          </cell>
+          <cell r="G21" t="str">
+            <v/>
+          </cell>
+          <cell r="I21" t="str">
             <v>(0.020)</v>
-          </cell>
-          <cell r="G21" t="str">
-            <v/>
-          </cell>
-          <cell r="I21" t="str">
-            <v>(0.019)</v>
           </cell>
           <cell r="J21" t="str">
             <v/>
@@ -486,13 +486,13 @@
             <v/>
           </cell>
           <cell r="F23" t="str">
+            <v>-0.011</v>
+          </cell>
+          <cell r="G23" t="str">
+            <v/>
+          </cell>
+          <cell r="I23" t="str">
             <v>-0.058**</v>
-          </cell>
-          <cell r="G23" t="str">
-            <v/>
-          </cell>
-          <cell r="I23" t="str">
-            <v>-0.069*</v>
           </cell>
           <cell r="J23" t="str">
             <v/>
@@ -509,13 +509,13 @@
             <v/>
           </cell>
           <cell r="F24" t="str">
+            <v>(0.023)</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v/>
+          </cell>
+          <cell r="I24" t="str">
             <v>(0.030)</v>
-          </cell>
-          <cell r="G24" t="str">
-            <v/>
-          </cell>
-          <cell r="I24" t="str">
-            <v>(0.037)</v>
           </cell>
           <cell r="J24" t="str">
             <v/>
@@ -572,16 +572,16 @@
             <v>0.020</v>
           </cell>
           <cell r="F29" t="str">
+            <v>0.032</v>
+          </cell>
+          <cell r="G29" t="str">
+            <v>0.019</v>
+          </cell>
+          <cell r="I29" t="str">
             <v>-0.13</v>
           </cell>
-          <cell r="G29" t="str">
+          <cell r="J29" t="str">
             <v>-0.14</v>
-          </cell>
-          <cell r="I29" t="str">
-            <v>-0.24</v>
-          </cell>
-          <cell r="J29" t="str">
-            <v>-0.25</v>
           </cell>
         </row>
         <row r="30">
@@ -595,16 +595,16 @@
             <v>(0.11)</v>
           </cell>
           <cell r="F30" t="str">
+            <v>(0.26)</v>
+          </cell>
+          <cell r="G30" t="str">
+            <v>(0.26)</v>
+          </cell>
+          <cell r="I30" t="str">
             <v>(0.28)</v>
           </cell>
-          <cell r="G30" t="str">
+          <cell r="J30" t="str">
             <v>(0.28)</v>
-          </cell>
-          <cell r="I30" t="str">
-            <v>(0.22)</v>
-          </cell>
-          <cell r="J30" t="str">
-            <v>(0.22)</v>
           </cell>
         </row>
         <row r="32">
@@ -615,16 +615,16 @@
             <v>0.016**</v>
           </cell>
           <cell r="F32" t="str">
+            <v>0.027**</v>
+          </cell>
+          <cell r="G32" t="str">
+            <v>0.027**</v>
+          </cell>
+          <cell r="I32" t="str">
             <v>0.0098</v>
           </cell>
-          <cell r="G32" t="str">
+          <cell r="J32" t="str">
             <v>0.0093</v>
-          </cell>
-          <cell r="I32" t="str">
-            <v>0.010</v>
-          </cell>
-          <cell r="J32" t="str">
-            <v>0.010</v>
           </cell>
         </row>
         <row r="33">
@@ -635,16 +635,16 @@
             <v>(0.0066)</v>
           </cell>
           <cell r="F33" t="str">
+            <v>(0.013)</v>
+          </cell>
+          <cell r="G33" t="str">
+            <v>(0.013)</v>
+          </cell>
+          <cell r="I33" t="str">
             <v>(0.014)</v>
           </cell>
-          <cell r="G33" t="str">
+          <cell r="J33" t="str">
             <v>(0.014)</v>
-          </cell>
-          <cell r="I33" t="str">
-            <v>(0.015)</v>
-          </cell>
-          <cell r="J33" t="str">
-            <v>(0.015)</v>
           </cell>
         </row>
         <row r="35">
@@ -655,16 +655,16 @@
             <v>-0.00060**</v>
           </cell>
           <cell r="F35" t="str">
+            <v>-0.00064</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v>-0.00065</v>
+          </cell>
+          <cell r="I35" t="str">
             <v>-0.00083*</v>
           </cell>
-          <cell r="G35" t="str">
+          <cell r="J35" t="str">
             <v>-0.00080*</v>
-          </cell>
-          <cell r="I35" t="str">
-            <v>-0.00022</v>
-          </cell>
-          <cell r="J35" t="str">
-            <v>-0.00021</v>
           </cell>
         </row>
         <row r="36">
@@ -681,10 +681,10 @@
             <v>(0.00048)</v>
           </cell>
           <cell r="I36" t="str">
-            <v>(0.00050)</v>
+            <v>(0.00048)</v>
           </cell>
           <cell r="J36" t="str">
-            <v>(0.00050)</v>
+            <v>(0.00048)</v>
           </cell>
         </row>
         <row r="38">
@@ -695,16 +695,16 @@
             <v>0.0000062**</v>
           </cell>
           <cell r="F38" t="str">
+            <v>0.0000054</v>
+          </cell>
+          <cell r="G38" t="str">
+            <v>0.0000055</v>
+          </cell>
+          <cell r="I38" t="str">
             <v>0.000011**</v>
           </cell>
-          <cell r="G38" t="str">
+          <cell r="J38" t="str">
             <v>0.000011**</v>
-          </cell>
-          <cell r="I38" t="str">
-            <v>0.0000035</v>
-          </cell>
-          <cell r="J38" t="str">
-            <v>0.0000033</v>
           </cell>
         </row>
         <row r="39">
@@ -715,16 +715,16 @@
             <v>(0.0000027)</v>
           </cell>
           <cell r="F39" t="str">
+            <v>(0.0000055)</v>
+          </cell>
+          <cell r="G39" t="str">
+            <v>(0.0000055)</v>
+          </cell>
+          <cell r="I39" t="str">
             <v>(0.0000053)</v>
           </cell>
-          <cell r="G39" t="str">
+          <cell r="J39" t="str">
             <v>(0.0000053)</v>
-          </cell>
-          <cell r="I39" t="str">
-            <v>(0.0000051)</v>
-          </cell>
-          <cell r="J39" t="str">
-            <v>(0.0000050)</v>
           </cell>
         </row>
         <row r="41">
@@ -735,16 +735,16 @@
             <v>-0.40***</v>
           </cell>
           <cell r="F41" t="str">
+            <v>0.065</v>
+          </cell>
+          <cell r="G41" t="str">
+            <v>0.064</v>
+          </cell>
+          <cell r="I41" t="str">
             <v>-1.27***</v>
           </cell>
-          <cell r="G41" t="str">
+          <cell r="J41" t="str">
             <v>-1.27***</v>
-          </cell>
-          <cell r="I41" t="str">
-            <v>-0.83***</v>
-          </cell>
-          <cell r="J41" t="str">
-            <v>-0.83***</v>
           </cell>
         </row>
         <row r="42">
@@ -758,16 +758,16 @@
             <v>(0.072)</v>
           </cell>
           <cell r="F42" t="str">
+            <v>(0.097)</v>
+          </cell>
+          <cell r="G42" t="str">
+            <v>(0.097)</v>
+          </cell>
+          <cell r="I42" t="str">
             <v>(0.23)</v>
           </cell>
-          <cell r="G42" t="str">
+          <cell r="J42" t="str">
             <v>(0.23)</v>
-          </cell>
-          <cell r="I42" t="str">
-            <v>(0.16)</v>
-          </cell>
-          <cell r="J42" t="str">
-            <v>(0.16)</v>
           </cell>
         </row>
         <row r="44">
@@ -801,16 +801,16 @@
             <v>0.217</v>
           </cell>
           <cell r="F45" t="str">
+            <v>0.147</v>
+          </cell>
+          <cell r="G45" t="str">
+            <v>0.147</v>
+          </cell>
+          <cell r="I45" t="str">
             <v>0.211</v>
           </cell>
-          <cell r="G45" t="str">
+          <cell r="J45" t="str">
             <v>0.210</v>
-          </cell>
-          <cell r="I45" t="str">
-            <v>0.181</v>
-          </cell>
-          <cell r="J45" t="str">
-            <v>0.180</v>
           </cell>
         </row>
         <row r="46">
@@ -821,16 +821,16 @@
             <v>8.44</v>
           </cell>
           <cell r="F46" t="str">
+            <v>3.01</v>
+          </cell>
+          <cell r="G46" t="str">
+            <v>3.26</v>
+          </cell>
+          <cell r="I46" t="str">
             <v>3.07</v>
           </cell>
-          <cell r="G46" t="str">
+          <cell r="J46" t="str">
             <v>3.16</v>
-          </cell>
-          <cell r="I46" t="str">
-            <v>2.62</v>
-          </cell>
-          <cell r="J46" t="str">
-            <v>2.79</v>
           </cell>
         </row>
         <row r="47">
@@ -841,13 +841,13 @@
             <v/>
           </cell>
           <cell r="F47" t="str">
+            <v>0.20</v>
+          </cell>
+          <cell r="G47" t="str">
+            <v/>
+          </cell>
+          <cell r="I47" t="str">
             <v>0.39</v>
-          </cell>
-          <cell r="G47" t="str">
-            <v/>
-          </cell>
-          <cell r="I47" t="str">
-            <v>0.48</v>
           </cell>
           <cell r="J47" t="str">
             <v/>
@@ -1158,21 +1158,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD70BB4-AC57-43E9-A225-B2A3FAF885B6}">
   <dimension ref="A2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.90625" customWidth="1"/>
-    <col min="2" max="3" width="10.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.54296875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="3" customWidth="1"/>
     <col min="5" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.90625" style="3" customWidth="1"/>
-    <col min="8" max="9" width="10.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="3" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6" t="s">
         <v>17</v>
@@ -1180,16 +1180,16 @@
       <c r="C2" s="6"/>
       <c r="D2" s="4"/>
       <c r="E2" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="4"/>
       <c r="H2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f>[1]pretime_trends_instrument_4q!A2</f>
         <v/>
@@ -1221,7 +1221,7 @@
         <v>(6)</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="E4" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F5</f>
-        <v>0.0097</v>
+        <v>-0.23*</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G5</f>
@@ -1243,14 +1243,14 @@
       </c>
       <c r="H4" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I5</f>
-        <v>-0.011</v>
+        <v>0.0097</v>
       </c>
       <c r="I4" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J5</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="E5" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F6</f>
-        <v>(0.089)</v>
+        <v>(0.12)</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G6</f>
@@ -1279,7 +1279,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="E6" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F8</f>
-        <v>0.010</v>
+        <v>0.074</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G8</f>
@@ -1301,14 +1301,14 @@
       </c>
       <c r="H6" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I8</f>
-        <v>0.028</v>
+        <v>0.010</v>
       </c>
       <c r="I6" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J8</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="E7" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F9</f>
-        <v>(0.064)</v>
+        <v>(0.061)</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G9</f>
@@ -1330,14 +1330,14 @@
       </c>
       <c r="H7" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I9</f>
-        <v>(0.073)</v>
+        <v>(0.064)</v>
       </c>
       <c r="I7" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J9</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E8" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F11</f>
-        <v>-0.010</v>
+        <v>-0.011</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G11</f>
@@ -1359,14 +1359,14 @@
       </c>
       <c r="H8" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I11</f>
-        <v>0.010</v>
+        <v>-0.010</v>
       </c>
       <c r="I8" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J11</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="E9" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F12</f>
-        <v>(0.051)</v>
+        <v>(0.057)</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G12</f>
@@ -1388,14 +1388,14 @@
       </c>
       <c r="H9" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I12</f>
-        <v>(0.059)</v>
+        <v>(0.051)</v>
       </c>
       <c r="I9" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J12</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="E10" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F14</f>
-        <v>-0.042</v>
+        <v>0.0027</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G14</f>
@@ -1417,14 +1417,14 @@
       </c>
       <c r="H10" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I14</f>
-        <v>-0.064</v>
+        <v>-0.042</v>
       </c>
       <c r="I10" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J14</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="E11" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F15</f>
-        <v>(0.061)</v>
+        <v>(0.055)</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G15</f>
@@ -1446,14 +1446,14 @@
       </c>
       <c r="H11" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I15</f>
-        <v>(0.060)</v>
+        <v>(0.061)</v>
       </c>
       <c r="I11" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J15</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="E12" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F17</f>
-        <v>-0.090</v>
+        <v>0.088</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G17</f>
@@ -1475,14 +1475,14 @@
       </c>
       <c r="H12" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I17</f>
-        <v>0.024</v>
+        <v>-0.090</v>
       </c>
       <c r="I12" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J17</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="E13" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F18</f>
-        <v>(0.075)</v>
+        <v>(0.17)</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G18</f>
@@ -1504,14 +1504,14 @@
       </c>
       <c r="H13" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I18</f>
-        <v>(0.066)</v>
+        <v>(0.075)</v>
       </c>
       <c r="I13" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J18</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="E14" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F20</f>
-        <v>0.016</v>
+        <v>0.0088</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G20</f>
@@ -1533,14 +1533,14 @@
       </c>
       <c r="H14" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I20</f>
-        <v>0.010</v>
+        <v>0.016</v>
       </c>
       <c r="I14" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J20</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>[1]pretime_trends_instrument_4q!A21</f>
         <v/>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="E15" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F21</f>
-        <v>(0.020)</v>
+        <v>(0.024)</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G21</f>
@@ -1563,14 +1563,14 @@
       </c>
       <c r="H15" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I21</f>
-        <v>(0.019)</v>
+        <v>(0.020)</v>
       </c>
       <c r="I15" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J21</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="E16" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F23</f>
-        <v>-0.058**</v>
+        <v>-0.011</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G23</f>
@@ -1592,14 +1592,14 @@
       </c>
       <c r="H16" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I23</f>
-        <v>-0.069*</v>
+        <v>-0.058**</v>
       </c>
       <c r="I16" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J23</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>[1]pretime_trends_instrument_4q!A24</f>
         <v/>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="E17" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F24</f>
-        <v>(0.030)</v>
+        <v>(0.023)</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G24</f>
@@ -1622,14 +1622,14 @@
       </c>
       <c r="H17" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I24</f>
-        <v>(0.037)</v>
+        <v>(0.030)</v>
       </c>
       <c r="I17" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J24</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>[1]pretime_trends_instrument_4q!A27</f>
         <v/>
@@ -1688,7 +1688,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -1703,23 +1703,23 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="str">
         <f>[1]pretime_trends_instrument_4q!F29</f>
-        <v>-0.13</v>
+        <v>0.032</v>
       </c>
       <c r="F20" s="4" t="str">
         <f>[1]pretime_trends_instrument_4q!G29</f>
-        <v>-0.14</v>
+        <v>0.019</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="str">
         <f>[1]pretime_trends_instrument_4q!I29</f>
-        <v>-0.24</v>
+        <v>-0.13</v>
       </c>
       <c r="I20" s="4" t="str">
         <f>[1]pretime_trends_instrument_4q!J29</f>
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>[1]pretime_trends_instrument_4q!A30</f>
         <v/>
@@ -1734,24 +1734,24 @@
       </c>
       <c r="E21" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F30</f>
-        <v>(0.28)</v>
+        <v>(0.26)</v>
       </c>
       <c r="F21" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G30</f>
-        <v>(0.28)</v>
+        <v>(0.26)</v>
       </c>
       <c r="H21" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I30</f>
-        <v>(0.22)</v>
+        <v>(0.28)</v>
       </c>
       <c r="I21" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J30</f>
-        <v>(0.22)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+        <v>(0.28)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C32</f>
@@ -1763,22 +1763,22 @@
       </c>
       <c r="E22" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F32</f>
-        <v>0.0098</v>
+        <v>0.027**</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G32</f>
-        <v>0.0093</v>
+        <v>0.027**</v>
       </c>
       <c r="H22" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I32</f>
-        <v>0.010</v>
+        <v>0.0098</v>
       </c>
       <c r="I22" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J32</f>
-        <v>0.010</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.0093</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C33</f>
         <v>(0.0065)</v>
@@ -1789,24 +1789,24 @@
       </c>
       <c r="E23" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F33</f>
-        <v>(0.014)</v>
+        <v>(0.013)</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G33</f>
-        <v>(0.014)</v>
+        <v>(0.013)</v>
       </c>
       <c r="H23" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I33</f>
-        <v>(0.015)</v>
+        <v>(0.014)</v>
       </c>
       <c r="I23" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J33</f>
-        <v>(0.015)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+        <v>(0.014)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C35</f>
@@ -1818,22 +1818,22 @@
       </c>
       <c r="E24" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F35</f>
-        <v>-0.00083*</v>
+        <v>-0.00064</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G35</f>
-        <v>-0.00080*</v>
+        <v>-0.00065</v>
       </c>
       <c r="H24" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I35</f>
-        <v>-0.00022</v>
+        <v>-0.00083*</v>
       </c>
       <c r="I24" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J35</f>
-        <v>-0.00021</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.00080*</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C36</f>
         <v>(0.00024)</v>
@@ -1852,16 +1852,16 @@
       </c>
       <c r="H25" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I36</f>
-        <v>(0.00050)</v>
+        <v>(0.00048)</v>
       </c>
       <c r="I25" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J36</f>
-        <v>(0.00050)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+        <v>(0.00048)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C38</f>
@@ -1873,22 +1873,22 @@
       </c>
       <c r="E26" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F38</f>
-        <v>0.000011**</v>
+        <v>0.0000054</v>
       </c>
       <c r="F26" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G38</f>
-        <v>0.000011**</v>
+        <v>0.0000055</v>
       </c>
       <c r="H26" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I38</f>
-        <v>0.0000035</v>
+        <v>0.000011**</v>
       </c>
       <c r="I26" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J38</f>
-        <v>0.0000033</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.000011**</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!C39</f>
         <v>(0.0000027)</v>
@@ -1899,22 +1899,22 @@
       </c>
       <c r="E27" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F39</f>
-        <v>(0.0000053)</v>
+        <v>(0.0000055)</v>
       </c>
       <c r="F27" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G39</f>
-        <v>(0.0000053)</v>
+        <v>(0.0000055)</v>
       </c>
       <c r="H27" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I39</f>
-        <v>(0.0000051)</v>
+        <v>(0.0000053)</v>
       </c>
       <c r="I27" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J39</f>
-        <v>(0.0000050)</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+        <v>(0.0000053)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1928,22 +1928,22 @@
       </c>
       <c r="E28" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F41</f>
-        <v>-1.27***</v>
+        <v>0.065</v>
       </c>
       <c r="F28" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G41</f>
-        <v>-1.27***</v>
+        <v>0.064</v>
       </c>
       <c r="H28" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I41</f>
-        <v>-0.83***</v>
+        <v>-1.27***</v>
       </c>
       <c r="I28" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J41</f>
-        <v>-0.83***</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-1.27***</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>[1]pretime_trends_instrument_4q!A42</f>
         <v/>
@@ -1958,22 +1958,22 @@
       </c>
       <c r="E29" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F42</f>
-        <v>(0.23)</v>
+        <v>(0.097)</v>
       </c>
       <c r="F29" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G42</f>
-        <v>(0.23)</v>
+        <v>(0.097)</v>
       </c>
       <c r="H29" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I42</f>
-        <v>(0.16)</v>
+        <v>(0.23)</v>
       </c>
       <c r="I29" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J42</f>
-        <v>(0.16)</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+        <v>(0.23)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>16884</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>[1]pretime_trends_instrument_4q!A45</f>
         <v>R-sq</v>
@@ -2019,22 +2019,22 @@
       </c>
       <c r="E32" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F45</f>
-        <v>0.211</v>
+        <v>0.147</v>
       </c>
       <c r="F32" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G45</f>
-        <v>0.210</v>
+        <v>0.147</v>
       </c>
       <c r="H32" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I45</f>
-        <v>0.181</v>
+        <v>0.211</v>
       </c>
       <c r="I32" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J45</f>
-        <v>0.180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -2048,22 +2048,22 @@
       </c>
       <c r="E33" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F46</f>
-        <v>3.07</v>
+        <v>3.01</v>
       </c>
       <c r="F33" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G46</f>
-        <v>3.16</v>
+        <v>3.26</v>
       </c>
       <c r="H33" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I46</f>
-        <v>2.62</v>
+        <v>3.07</v>
       </c>
       <c r="I33" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J46</f>
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="E34" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!F47</f>
-        <v>0.39</v>
+        <v>0.20</v>
       </c>
       <c r="F34" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!G47</f>
@@ -2085,14 +2085,14 @@
       </c>
       <c r="H34" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!I47</f>
-        <v>0.48</v>
+        <v>0.39</v>
       </c>
       <c r="I34" s="3" t="str">
         <f>[1]pretime_trends_instrument_4q!J47</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
